--- a/api/python/TaiGer_Transcript-Program_Comparer/database/MechanicalEngineering/ME_Programs.xlsx
+++ b/api/python/TaiGer_Transcript-Program_Comparer/database/MechanicalEngineering/ME_Programs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\20110706\TaiGer_Transcript-Program_Comparer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c520cbcd5c1ba828/20110706/TaiGer_Transcript-Program_Comparer/database/MechanicalEngineering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D240C7B-B2B4-402B-B58F-73A0F5FE1D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{0FD654BA-EE19-47EA-A4F5-5EAA68F6F03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAE3F75B-1237-4FCE-B50E-BB503FA41120}"/>
   <bookViews>
-    <workbookView xWindow="21825" yWindow="-16350" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6975" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program_choosing" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Program</t>
   </si>
@@ -55,6 +55,30 @@
   </si>
   <si>
     <t>TUM_COMPUTATIONAL_MECHANICS</t>
+  </si>
+  <si>
+    <t>TUBerlin_ME</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>RWTH Aachen_ME</t>
+  </si>
+  <si>
+    <t>TUBraunschweig_ME</t>
+  </si>
+  <si>
+    <t>KIT_ME</t>
+  </si>
+  <si>
+    <t>TU_DORTMUND_ROBOTICS</t>
+  </si>
+  <si>
+    <t>RWTH_Aachen_ROBOTICS</t>
+  </si>
+  <si>
+    <t>德語</t>
   </si>
 </sst>
 </file>
@@ -372,18 +396,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,7 +415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -399,15 +423,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -415,7 +442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -423,7 +450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -431,7 +458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -439,7 +466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -447,9 +474,66 @@
         <v>2</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B8" xr:uid="{610A300D-EA49-404E-A3AA-32352271D928}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B16" xr:uid="{610A300D-EA49-404E-A3AA-32352271D928}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
